--- a/BUFFSpider/ak47数据.xlsx
+++ b/BUFFSpider/ak47数据.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +448,2006 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AK-47 | 墨岩</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14025</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5848fd4a4380749e3c205rAiOjVR305?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AK-47 | 墨岩</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11088</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58214edb3f8a06ca8b9f5f64PLNuk05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AK-47 | 迷踪秘境</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1829</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f586dc5aa9dbbcbdbd7556bYJWNOb705?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AK-47 | 红线</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10075</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>171.4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57cfd4a1277d13463b336NCAkQfVG05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AK-47 | 局外人</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>230</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>211.5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/66fdf7bf0a3d243f6bd28c98AbiaBRNN05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AK-47 | 可燃冰</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7173</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>54.39</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f580e192eb79801d409bdaiAuTQG1705?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AK-47 | 阿努比斯军团</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3524</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f583a044d6c853f4676ef5hFdNb3py05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AK-47 | 火神</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1291</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f574735d32dcce1017d54bcYFRJuI505?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AK-47 | 卡特尔</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>655</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/660a58f362ad352e7ad77572uuphQ11805?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AK-47（纪念品） | 狩猎网格</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>209</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>122.55</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58c6056a9ea245eb416aeI2qbuSoV05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 迷踪秘境</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f59461b75c42f1aa12d8d3qULHjs3i05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 迷踪秘境</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>628</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>11.67</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f59461b75c42f1aa12d8d3qULHjs3i05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AK-47 | 皇后</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2099</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>215.5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5779ddd7f5e6f46af1b7cvEUhd9Cd05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AK-47 | 精英之作</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5562</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13.5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57b4a5af16f7910aba386r7GCHfGj05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 精英之作</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1325</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5844574b9f1bce766c9490Q1GOl3605?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AK-47 | 血腥运动</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1377</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5778c56e9521d027a4bfdxXRDCps205?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AK-47 | 幻影破坏者</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1857</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>36.8</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57a821dbe9af3dbfbf429rgv0ls0i05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AK-47 | 二西莫夫</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3716</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5772e0bdd313b3446c868Lag9giPP05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 燃料喷射器</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>143</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2919.48</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f59ce0f6a2325cbfde430ce13wIId405?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AK-47 | 交叉渐变</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>385</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>39.99</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/66fe0c98c591cd7972a8f175lxxCqcqy05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AK-47 | 深海复仇</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>362</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>468.5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57ca828e4f81dec20a431g1F1y0tk05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 墨岩</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2069</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5848fd4a4380749e3c205rAiOjVR305?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 霓虹骑士</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>117</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2090.17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f572d5b3d7b4671f137b3bPhK2uvgR05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AK-47 | 夜愿</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>639</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58122e5e1676bd5aaa8269tos0AZz05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AK-47 | 混沌点阵</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5776c55620302226d48a0jN52YVdm05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AK-47 | 精英之作</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4379</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8.6</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5844574b9f1bce766c9490Q1GOl3605?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AK-47 | 翡翠细条纹</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58cd5ffb848e55ab81764AO5BHalX05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AK-47 | 迷踪秘境</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2901</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f59461b75c42f1aa12d8d3qULHjs3i05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AK-47 | 血腥运动</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>968</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5778c56e9521d027a4bfdxXRDCps205?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AK-47 | 一发入魂</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3303</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57963acf98ab8de143dbatYreY5iP05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AK-47 | 安全网</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>123</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>14.98</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>战痕累累</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58e340ce05c752dc58a44ZWjPpHuf05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AK-47 | 传承</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>586</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65c34dda2b807e3150cb64beF011skbE05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AK-47 | 一发入魂</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>608</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>33.9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57963acf98ab8de143dbatYreY5iP05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AK-47 | 迷踪秘境</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>80</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f59461b75c42f1aa12d8d3qULHjs3i05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AK-47 | 轨道 Mk01</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>377</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>106.8</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57e8ca7223f7e3ddc7beaGmxPEJeX05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AK-47 | 迷踪秘境</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>267</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>战痕累累</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f584f13415dd751983cc32aYLdbkTT05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AK-47 | 蓝色层压板</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1595</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>82.9</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57b57d58ed9e4a1b03fb95lMqJZGc05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 墨岩</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>789</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>战痕累累</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f584dd7364dac260a53298mD9Ijt0105?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AK-47 | 墨岩</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4239</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>战痕累累</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f584dd7364dac260a53298mD9Ijt0105?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AK-47 | 轨道 Mk01</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>360</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>89.9</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57eb9341cb121d1e840dfiyRyhPDs05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AK-47 | 夜愿</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4976</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58122e5e1676bd5aaa8269tos0AZz05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>AK-47 | 火神</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4943</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f56faaeb0044122d909b34rNBUBvXk05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>AK-47 | 墨岩</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>3955</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>66.4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58214edb3f8a06ca8b9f5f64PLNuk05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AK-47 | 表面淬火</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1372</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1526.66</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57109dd7f5e6f46ae84aakKbCILaq05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>AK-47 | 交叉渐变</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>266</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>17.4</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/66fdfa44a338f4e2221c9a86eafZ8NiC05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>AK-47 | 混沌点阵</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2134</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f574a915e4f8eb8d87ad6bOW4g3bwY05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>AK-47 | 幻影破坏者</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4048</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58700da17dd5bf2f320caimw825Th05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>AK-47 | 火蛇</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>11</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3599</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>战痕累累</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f599936ce42bd73b4214b1GAmYH9CW05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AK-47 | 阿努比斯军团</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1658</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>88.8</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57f7f52224544f0c051a1NFKXICgT05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 局外人</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>58</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>231.5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/66fde31f064d32cb4f26bb84QE0vq4pD05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AK-47 | 钢铁三角洲</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>663</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58b1d15bf87e8b346a27dY2l3zgNP05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AK-47 | 可燃冰</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3173</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>95.4</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f580e192eb79801d409bdaiAuTQG1705?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>AK-47 | 翡翠细条纹</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1567</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f596c55ece72ec14ee49ecQi76UciX05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>AK-47 | 可燃冰</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>12706</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58351313545d4f0b3bc66Nh9lFIsG05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 红线</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>372.5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57cfd4a1277d13463b336NCAkQfVG05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>AK-47 | 二西莫夫</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>412.99</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57072372367dc73b699e2Zc91itAt05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>AK-47 | 抽象派 1337</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>572</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>242.48</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f574b7b3d7b4671f13a92foa8SFAO905?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>AK-47 | 皇后</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>997</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>413.5</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57623c5490b95714b7ba3kT2DD6NI05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>AK-47 | 前线迷雾</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1833</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>76.6</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57920fb0ac838070117c0SNDbH2vb05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>AK-47 | 局外人</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>77</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>93.7</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/66fde31f064d32cb4f26bb84QE0vq4pD05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>AK-47 | 狩猎网格</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>5861</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58c6056a9ea245eb416aeI2qbuSoV05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>AK-47 | 可燃冰</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>154</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>30.44</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58351313545d4f0b3bc66Nh9lFIsG05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AK-47 | 翡翠细条纹</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>482</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>14.36</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>战痕累累</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5e2c81427f3739b98983f3SfMx5xT05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>AK-47 | 幻影破坏者</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>855</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57a821dbe9af3dbfbf429rgv0ls0i05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>AK-47 | 局外人</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>414</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>109.5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/66fde31f064d32cb4f26bb84QE0vq4pD05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 霓虹骑士</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>137</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>522.88</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57806f01b9ff8cbbd5bd56E3QqB0s05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 精英之作</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1569</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>46.7</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57b4a5af16f7910aba386r7GCHfGj05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 火神</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>250</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>9200</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>崭新出厂</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f56faaeb0044122d909b34rNBUBvXk05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>AK-47 | X 射线</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>73</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58c90683f166e9cf28acbP9tG2HfF05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>AK-47 | 巴洛克之紫</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>680</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5a1260620fc6e8cda24da2UFEmiHr05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 可燃冰</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>62.6</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f58351313545d4f0b3bc66Nh9lFIsG05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 夜愿</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>112</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>战痕累累</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5871561c2c343cf3eeab9NbQo6Ppe05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>AK-47 | 燃料喷射器</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>171</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5720e885e79cf10ca301bsK4gSTei05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AK-47 | 蓝色层压板</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1666</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f57b57d58ed9e4a1b03fb95lMqJZGc05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>AK-47 | 墨岩</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3877</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5848fd4a4380749e3c205rAiOjVR305?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AK-47 | 燃料喷射器</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>701</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5720e885e79cf10ca301bsK4gSTei05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>AK-47（StatTrak™） | 精英之作</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>511</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>18.2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>破损不堪</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5844574b9f1bce766c9490Q1GOl3605?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AK-47 | 霓虹革命</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>647</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>略有磨损</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5766ca8324b97de4f24b6xCi4sHse05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>AK-47 | 深海复仇</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>770</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f5a80e6deb7c19234ca18f5YN5edpm05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>AK-47 | 安全网</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>794</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>久经沙场</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://market.fp.ps.netease.com/file/65f593ac3a744bc285d2e2a9i5smM1Ss05?fop=imageView/6/f/webp</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
